--- a/Photometry Absorption O-P V2.xlsx
+++ b/Photometry Absorption O-P V2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Astronomy\Projects\SAS 2021 Ammonia\Jupiter_NH3_Analysis_P3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88003C7-4320-4D46-9C7F-D2D1CC5D690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A724E4-260A-4F1B-87BE-345AEA184CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{19784BED-E69C-498E-9D27-C5EB263D22FE}"/>
   </bookViews>
@@ -18,9 +18,11 @@
     <sheet name="filtereffectivedataWV2" sheetId="5" r:id="rId3"/>
     <sheet name="Modeled (Moons)" sheetId="8" r:id="rId4"/>
     <sheet name="Observed (Moons)" sheetId="6" r:id="rId5"/>
-    <sheet name="VLT-MUSE" sheetId="9" r:id="rId6"/>
+    <sheet name="Observed VLT-MUSE MaximDL" sheetId="9" r:id="rId6"/>
+    <sheet name="Modeled VLT-MUSE Karkoschka" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +48,79 @@
     <author>Steven Hill</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{D083E1F3-1D1F-42D6-8120-CD7F2F424242}">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{518BA2D3-5175-48E5-B2F0-D2BDC647A438}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Straight ratio model using spline fit continuum #1 and SCT filter transmissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{721470F0-464F-4CB2-882B-04EA3F9D904E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Straight ratio model using spline fit continuum #1 and SCT filter transmissions</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{B20671D6-0F97-47CE-B463-2C8FE3104E97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Full model for SCT using Karkoschka Jupiter spectrum, Galilean moons spectra, and SCT filter transmission</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{86FB888F-75C7-480D-8B10-AD259F3524BC}">
       <text>
         <r>
           <rPr>
@@ -66,6 +140,41 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Need to double check if this is using continuum Model 1, or interpolation
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steven Hill</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{D083E1F3-1D1F-42D6-8120-CD7F2F424242}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 Independent solution of column abundance
 </t>
         </r>
@@ -79,7 +188,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Steven Hill:</t>
         </r>
@@ -88,7 +197,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Independent solution of column abundance
@@ -149,8 +258,90 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Steven Hill</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{2A82D431-0882-4B75-BF5A-278068920468}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Manually measured in 1/4 size images in MaximDL. PNG images generated by ReadMUSE.py. These are radiance images, not albedo images.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{AE1F7411-5C68-4834-B256-4B0772ED22F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is computed only with the 632 continuum reference, rather than the 632-656 extrapolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{9DFE3D6C-E874-40F8-B1F2-BB77B7CEFFEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Steven Hill:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is computed only with the 632 continuum reference, rather than the 632-656 extrapolation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="122">
   <si>
     <t>Stddev</t>
   </si>
@@ -942,18 +1133,12 @@
     <t>AGU Values Based on inconsistent numbers</t>
   </si>
   <si>
-    <t>635-660</t>
-  </si>
-  <si>
     <t>627-667</t>
   </si>
   <si>
     <t>600-640</t>
   </si>
   <si>
-    <t>605-635</t>
-  </si>
-  <si>
     <t>Model 1</t>
   </si>
   <si>
@@ -1012,20 +1197,51 @@
   </si>
   <si>
     <t>Albedo sampled at 0.5nm from ReadMUSE.py</t>
+  </si>
+  <si>
+    <t>VLT MUSE</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>SCT Model</t>
+  </si>
+  <si>
+    <t>VLT Model</t>
+  </si>
+  <si>
+    <t>Direct Interpolation of Albedo Spectrum Model 3</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>Obs, Spec, Alb</t>
+  </si>
+  <si>
+    <t>Update from Ammonia_Test.py on 6/29/2023</t>
+  </si>
+  <si>
+    <t>Albedo computed from MaximDL measurements of 0.25 scale PNG images with aperture settings of 34/2/8 on 6/29/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000E+00"/>
     <numFmt numFmtId="168" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,12 +1383,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.499984740745262"/>
@@ -1182,6 +1392,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1189,10 +1421,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1248,7 +1480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1336,9 +1568,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1356,13 +1585,43 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1375,9 +1634,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1692,26 +1948,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6789E3-055C-4FD4-96DB-F71CA9E2F53C}">
-  <dimension ref="A2:M39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6789E3-055C-4FD4-96DB-F71CA9E2F53C}">
+  <dimension ref="A2:P39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" customWidth="1"/>
-    <col min="8" max="9" width="7" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="9" max="10" width="7" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>62</v>
       </c>
@@ -1726,30 +1983,32 @@
         <v>50</v>
       </c>
       <c r="F2" s="33"/>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>56</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="J2" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="48"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>52</v>
       </c>
@@ -1767,126 +2026,131 @@
         <v>0.87752920200100104</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:I7" si="0">$B4-D4</f>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J7" si="0">$B4-D4</f>
         <v>2.9555273823041017E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="0"/>
         <v>3.247079799899899E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>0.91</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="1">
         <f>'Observed (Moons)'!U3</f>
-        <v>9.4061166578875643E-2</v>
+        <v>8.8683483203246274E-2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>filtereffectivedataWV1!R2</f>
-        <v>0.12696087524944569</v>
+        <v>0.12696593966112824</v>
       </c>
       <c r="E5" s="1">
         <f>filtereffectivedataWV2!R2</f>
         <v>0.13004317472645083</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.2899708670570044E-2</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>-3.5982008147575184E-2</v>
+        <v>-3.8282456457881961E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>9.4061166578875643E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-4.1359691523204553E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8683483203246274E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="29">
         <f>'Observed (Moons)'!S3</f>
-        <v>219.65966896659603</v>
+        <v>207.10124349664011</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29">
         <f>filtereffectivedataWV1!P2</f>
-        <v>296.48987827103662</v>
+        <v>279.53982372405875</v>
       </c>
       <c r="E6" s="29">
         <f>filtereffectivedataWV2!P2</f>
         <v>303.68792723640968</v>
       </c>
       <c r="F6" s="29"/>
-      <c r="G6" s="29">
-        <f t="shared" si="0"/>
-        <v>-76.830209304440586</v>
-      </c>
+      <c r="G6" s="29"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>-84.028258269813648</v>
+        <v>-72.43858022741864</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="0"/>
-        <v>219.65966896659603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-96.586683739769569</v>
+      </c>
+      <c r="J6" s="29">
+        <f t="shared" si="0"/>
+        <v>207.10124349664011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="29">
         <f>'Observed (Moons)'!P3</f>
-        <v>694.97485865308875</v>
+        <v>655.2176467363679</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29">
         <f>filtereffectivedataWV1!T2</f>
-        <v>935.57396495973558</v>
+        <v>882.08805902839299</v>
       </c>
       <c r="E7" s="29">
         <f>filtereffectivedataWV2!T2</f>
         <v>958.28741221054611</v>
       </c>
       <c r="F7" s="29"/>
-      <c r="G7" s="29">
-        <f t="shared" si="0"/>
-        <v>-240.59910630664683</v>
-      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>-263.31255355745736</v>
+        <v>-226.87041229202509</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="0"/>
-        <v>694.97485865308875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
+        <v>-303.06976547417821</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="0"/>
+        <v>655.2176467363679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="48"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>52</v>
       </c>
@@ -1904,82 +2168,85 @@
         <v>0.93961317715009796</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1">
-        <f t="shared" ref="G9:I12" si="1">$B9-D9</f>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
+        <f t="shared" ref="H9:J12" si="1">$B9-D9</f>
         <v>1.2351377286718979E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>3.2386822849902019E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="1">
         <f>'Observed (Moons)'!T5</f>
-        <v>2.226726480241769E-2</v>
+        <v>2.1299023391299219E-2</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <f>filtereffectivedataWV1!Q4</f>
-        <v>3.2883539858359498E-2</v>
+        <v>3.3180758603853437E-2</v>
       </c>
       <c r="E10" s="1">
         <f>filtereffectivedataWV2!Q4</f>
         <v>5.3795863958974247E-2</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.0616275055941808E-2</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1528599156556557E-2</v>
+        <v>-1.1881735212554218E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="1"/>
-        <v>2.226726480241769E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-3.2496840567675031E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1299023391299219E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>60</v>
       </c>
       <c r="B11" s="28">
         <f>'Observed (Moons)'!R5</f>
-        <v>7.5116359445651524</v>
+        <v>7.1850095245126857</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28">
         <f>filtereffectivedataWV1!O4</f>
-        <v>11.092928663504953</v>
+        <v>10.603775021817354</v>
       </c>
       <c r="E11" s="28">
         <f>filtereffectivedataWV2!O4</f>
         <v>18.147489104242968</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="28">
-        <f t="shared" si="1"/>
-        <v>-3.5812927189398005</v>
-      </c>
+      <c r="G11" s="28"/>
       <c r="H11" s="28">
         <f t="shared" si="1"/>
-        <v>-10.635853159677815</v>
+        <v>-3.4187654973046682</v>
       </c>
       <c r="I11" s="28">
         <f t="shared" si="1"/>
-        <v>7.5116359445651524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>-10.962479579730282</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="1"/>
+        <v>7.1850095245126857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>59</v>
       </c>
@@ -1997,328 +2264,380 @@
         <v>108</v>
       </c>
       <c r="F12" s="31"/>
-      <c r="G12" s="31">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31">
         <f t="shared" si="1"/>
         <v>-5.6000000000000014</v>
       </c>
-      <c r="H12" s="31">
+      <c r="I12" s="31">
         <f t="shared" si="1"/>
         <v>-46.1</v>
       </c>
-      <c r="I12" s="31">
+      <c r="J12" s="31">
         <f t="shared" si="1"/>
         <v>61.9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="50"/>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>110</v>
+      <c r="B16" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>108</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="33" t="s">
+      <c r="F16" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="I16" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="L16" s="46"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="J16" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="46"/>
+      <c r="O16" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="51">
+      <c r="B17" s="64">
         <f>'Observed (Moons)'!F3</f>
         <v>0.91</v>
       </c>
-      <c r="C17" s="51">
-        <f>'VLT-MUSE'!F2</f>
-        <v>0.86107685984381421</v>
-      </c>
-      <c r="D17" s="51">
+      <c r="C17" s="64">
+        <f>'Observed VLT-MUSE MaximDL'!F4</f>
+        <v>0.89310509181437114</v>
+      </c>
+      <c r="D17" s="50">
         <f>filtereffectivedataWV1!H2</f>
         <v>0.88044472617695901</v>
       </c>
-      <c r="E17" s="51">
+      <c r="E17" s="50">
         <f>filtereffectivedataWV2!H2</f>
         <v>0.87752920200100104</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="64">
         <f>'Modeled (Moons)'!H3</f>
         <v>0.88158708501010896</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17:G18" si="2">$B17-D17</f>
+      <c r="G17" s="64">
+        <f>'Modeled VLT-MUSE Karkoschka'!G3</f>
+        <v>0.87063612496085896</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:H22" si="2">$B17-D17</f>
         <v>2.9555273823041017E-2</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17:I18" si="3">$B17-E17</f>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17:J22" si="3">$B17-E17</f>
         <v>3.247079799899899E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="3"/>
         <v>2.8412914989891069E-2</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>79</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="51">
+      <c r="B18" s="64">
         <f>'Observed (Moons)'!I3</f>
         <v>9.431067947124129E-2</v>
       </c>
-      <c r="C18" s="51">
-        <f>'VLT-MUSE'!G2</f>
-        <v>0.1495715104272845</v>
-      </c>
-      <c r="D18" s="51">
+      <c r="C18" s="64">
+        <f>'Observed VLT-MUSE MaximDL'!G4</f>
+        <v>0.11305102102720174</v>
+      </c>
+      <c r="D18" s="50">
         <f>filtereffectivedataWV1!R2</f>
-        <v>0.12696087524944569</v>
-      </c>
-      <c r="E18" s="51">
+        <v>0.12696593966112824</v>
+      </c>
+      <c r="E18" s="50">
         <f>filtereffectivedataWV2!R2</f>
         <v>0.13004317472645083</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="64">
         <f>'Modeled (Moons)'!I3</f>
         <v>0.12603149018023099</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="64">
+        <f>'Modeled VLT-MUSE Karkoschka'!H3</f>
+        <v>0.13853115639806601</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="2"/>
-        <v>-3.2650195778204397E-2</v>
-      </c>
-      <c r="H18" s="1">
+        <v>-3.2655260189886945E-2</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="3"/>
         <v>-3.5732495255209537E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="3"/>
         <v>-3.1720810708989702E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="66">
         <v>-13.485223550000001</v>
       </c>
-      <c r="L18" s="47">
+      <c r="M18" s="73">
         <v>13.478199330000001</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="N18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="66">
+        <v>-12.741159680000001</v>
+      </c>
+      <c r="P18" s="66">
+        <v>12.733235349999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="51">
-        <f>B17*$K$18+$L$18</f>
+      <c r="B19" s="64">
+        <f>B17*$L$18+$M$18</f>
         <v>1.2066458994999998</v>
       </c>
-      <c r="C19" s="51">
-        <f>C17*$K$18+$L$18</f>
-        <v>1.8663853812741475</v>
-      </c>
-      <c r="D19" s="51">
-        <f>D17*$K$18+$L$18</f>
+      <c r="C19" s="64">
+        <f>C17*$O$18+$P$18</f>
+        <v>1.3540407641720353</v>
+      </c>
+      <c r="D19" s="50">
+        <f>D17*$L$18+$M$18</f>
         <v>1.6052053740851715</v>
       </c>
-      <c r="E19" s="51">
-        <f>E17*$K$18+$L$18</f>
+      <c r="E19" s="50">
+        <f>E17*$L$18+$M$18</f>
         <v>1.644521869363393</v>
       </c>
-      <c r="F19" s="51">
-        <f>F17*$K$18+$L$18</f>
+      <c r="F19" s="64">
+        <f>F17*$L$18+$M$18</f>
         <v>1.5898004098458269</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" ref="G19" si="4">$B19-D19</f>
+      <c r="G19" s="64">
+        <f>G17*$O$18+$P$18</f>
+        <v>1.6403214586972616</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
         <v>-0.39855947458517171</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:I19" si="5">$B19-E19</f>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
         <v>-0.43787596986339317</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="5"/>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
         <v>-0.38315451034582715</v>
       </c>
-      <c r="K19">
-        <v>-13.205698590000001</v>
-      </c>
-      <c r="L19" s="46">
-        <v>13.19962834</v>
-      </c>
-      <c r="M19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="M19" s="46"/>
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B20" s="64">
         <f>'Observed (Moons)'!F5</f>
         <v>0.97199999999999998</v>
       </c>
-      <c r="C20" s="51">
-        <f>'VLT-MUSE'!F4</f>
-        <v>0.96130255380840857</v>
-      </c>
-      <c r="D20" s="51">
+      <c r="C20" s="64">
+        <f>'Observed VLT-MUSE MaximDL'!F5</f>
+        <v>0.96174116545752397</v>
+      </c>
+      <c r="D20" s="50">
         <f>filtereffectivedataWV1!H4</f>
         <v>0.959648622713281</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="50">
         <f>filtereffectivedataWV2!H4</f>
         <v>0.93961317715009796</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="64">
         <f>'Modeled (Moons)'!H4</f>
         <v>0.96288907914727495</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" ref="G20:G22" si="6">$B20-D20</f>
+      <c r="G20" s="64">
+        <f>'Modeled VLT-MUSE Karkoschka'!G4</f>
+        <v>0.95273936474507703</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
         <v>1.2351377286718979E-2</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:I22" si="7">$B20-E20</f>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
         <v>3.2386822849902019E-2</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="7"/>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
         <v>9.1109208527250241E-3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>79</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="51">
+      <c r="B21" s="64">
         <f>'Observed (Moons)'!I5</f>
         <v>2.8399474521698002E-2</v>
       </c>
-      <c r="C21" s="51">
-        <f>'VLT-MUSE'!G4</f>
-        <v>3.9466087294308817E-2</v>
-      </c>
-      <c r="D21" s="51">
+      <c r="C21" s="64">
+        <f>'Observed VLT-MUSE MaximDL'!G5</f>
+        <v>3.9009923295199561E-2</v>
+      </c>
+      <c r="D21" s="50">
         <f>filtereffectivedataWV1!Q4</f>
-        <v>3.2883539858359498E-2</v>
-      </c>
-      <c r="E21" s="51">
+        <v>3.3180758603853437E-2</v>
+      </c>
+      <c r="E21" s="50">
         <f>filtereffectivedataWV2!Q4</f>
         <v>5.3795863958974247E-2</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="64">
         <f>'Modeled (Moons)'!I4</f>
         <v>3.7817056427304901E-2</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.4840653366614962E-3</v>
+      <c r="G21" s="64">
+        <f>'Modeled VLT-MUSE Karkoschka'!H4</f>
+        <v>4.8413901982595701E-2</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
+        <v>-4.7812840821554355E-3</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
         <v>-2.5396389437276245E-2</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="7"/>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
         <v>-9.4175819056068998E-3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="66">
         <v>-12.828318729999999</v>
       </c>
-      <c r="L21" s="47">
+      <c r="M21" s="73">
         <v>12.82685019</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="N21" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="66">
+        <v>-12.15343491</v>
+      </c>
+      <c r="P21" s="66">
+        <v>12.15195684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="52">
-        <f>B20*$K$21+$L$21</f>
+      <c r="B22" s="65">
+        <f>B20*$L$21+$M$21</f>
         <v>0.35772438444000088</v>
       </c>
-      <c r="C22" s="52">
-        <f t="shared" ref="C22:F22" si="8">C20*$K$21+$L$21</f>
-        <v>0.4949546337827595</v>
-      </c>
-      <c r="D22" s="52">
-        <f t="shared" si="8"/>
+      <c r="C22" s="65">
+        <f>C20*$O$21+$P$21</f>
+        <v>0.46349818534444331</v>
+      </c>
+      <c r="D22" s="51">
+        <f>D20*$L$21+$M$21</f>
         <v>0.51617178902851535</v>
       </c>
-      <c r="E22" s="52">
-        <f t="shared" si="8"/>
+      <c r="E22" s="51">
+        <f>E20*$L$21+$M$21</f>
         <v>0.7731928706105915</v>
       </c>
-      <c r="F22" s="52">
-        <f t="shared" si="8"/>
+      <c r="F22" s="65">
+        <f>F20*$L$21+$M$21</f>
         <v>0.47460218106256136</v>
       </c>
-      <c r="G22" s="44">
-        <f t="shared" si="6"/>
+      <c r="G22" s="65">
+        <f>G20*$O$21+$P$21</f>
+        <v>0.57290098437595915</v>
+      </c>
+      <c r="H22" s="44">
+        <f t="shared" si="2"/>
         <v>-0.15844740458851447</v>
       </c>
-      <c r="H22" s="44">
-        <f t="shared" si="7"/>
+      <c r="I22" s="44">
+        <f t="shared" si="3"/>
         <v>-0.41546848617059062</v>
       </c>
-      <c r="I22" s="44">
-        <f t="shared" si="7"/>
+      <c r="J22" s="44">
+        <f t="shared" si="3"/>
         <v>-0.11687779662256048</v>
       </c>
-      <c r="K22">
-        <v>-12.3796292</v>
-      </c>
-      <c r="L22" s="46">
-        <v>12.37847891</v>
-      </c>
-      <c r="M22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M22" s="46"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C23" s="50"/>
+      <c r="O23">
+        <f>(C22-C23)/AVERAGE(C22:C23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>49</v>
@@ -2327,110 +2646,114 @@
         <v>50</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="I25" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="J25" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="47"/>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="52">
         <f>'Observed (Moons)'!S3</f>
-        <v>219.65966896659603</v>
-      </c>
-      <c r="C26" s="53">
-        <f>'VLT-MUSE'!H2</f>
-        <v>349.2921644740652</v>
-      </c>
-      <c r="D26" s="53">
+        <v>207.10124349664011</v>
+      </c>
+      <c r="C26" s="52">
+        <f>'Observed VLT-MUSE MaximDL'!H3</f>
+        <v>327.33653844608921</v>
+      </c>
+      <c r="D26" s="52">
         <f>filtereffectivedataWV1!P2</f>
-        <v>296.48987827103662</v>
-      </c>
-      <c r="E26" s="53">
+        <v>279.53982372405875</v>
+      </c>
+      <c r="E26" s="52">
         <f>filtereffectivedataWV2!P2</f>
         <v>303.68792723640968</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="52">
         <f>'Modeled (Moons)'!S3</f>
         <v>293.54459688451749</v>
       </c>
-      <c r="G26" s="29">
-        <f t="shared" ref="G26:G29" si="9">$B26-D26</f>
-        <v>-76.830209304440586</v>
-      </c>
+      <c r="G26" s="52"/>
       <c r="H26" s="29">
-        <f t="shared" ref="H26:I29" si="10">$B26-E26</f>
-        <v>-84.028258269813648</v>
+        <f>$B26-D26</f>
+        <v>-72.43858022741864</v>
       </c>
       <c r="I26" s="29">
-        <f t="shared" si="10"/>
-        <v>-73.884927917921459</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+        <f t="shared" ref="I26:J29" si="4">$B26-E26</f>
+        <v>-96.586683739769569</v>
+      </c>
+      <c r="J26" s="29">
+        <f t="shared" si="4"/>
+        <v>-86.44335338787738</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="52">
         <f>'Observed (Moons)'!P3</f>
-        <v>694.97485865308875</v>
-      </c>
-      <c r="C27" s="53">
-        <f>'VLT-MUSE'!K2</f>
-        <v>1102.1916065129044</v>
-      </c>
-      <c r="D27" s="53">
+        <v>655.2176467363679</v>
+      </c>
+      <c r="C27" s="52">
+        <f>'Observed VLT-MUSE MaximDL'!K3</f>
+        <v>1032.9106171720507</v>
+      </c>
+      <c r="D27" s="52">
         <f>filtereffectivedataWV1!T2</f>
-        <v>935.57396495973558</v>
-      </c>
-      <c r="E27" s="53">
+        <v>882.08805902839299</v>
+      </c>
+      <c r="E27" s="52">
         <f>filtereffectivedataWV2!T2</f>
         <v>958.28741221054611</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F27" s="52">
         <f>'Modeled (Moons)'!O3</f>
         <v>928.72533169006863</v>
       </c>
-      <c r="G27" s="29">
-        <f t="shared" si="9"/>
-        <v>-240.59910630664683</v>
-      </c>
+      <c r="G27" s="52"/>
       <c r="H27" s="29">
-        <f t="shared" si="10"/>
-        <v>-263.31255355745736</v>
+        <f>$B27-D27</f>
+        <v>-226.87041229202509</v>
       </c>
       <c r="I27" s="29">
-        <f t="shared" si="10"/>
-        <v>-233.75047303697988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="4"/>
+        <v>-303.06976547417821</v>
+      </c>
+      <c r="J27" s="29">
+        <f t="shared" si="4"/>
+        <v>-273.50768495370073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="39">
         <f>'Observed (Moons)'!R5</f>
-        <v>7.5116359445651524</v>
+        <v>7.1850095245126857</v>
       </c>
       <c r="C28" s="39">
-        <f>'VLT-MUSE'!H4</f>
-        <v>13.313484280255578</v>
+        <f>'Observed VLT-MUSE MaximDL'!H5</f>
+        <v>12.466636317127744</v>
       </c>
       <c r="D28" s="39">
         <f>filtereffectivedataWV1!O4</f>
-        <v>11.092928663504953</v>
+        <v>10.603775021817354</v>
       </c>
       <c r="E28" s="39">
         <f>filtereffectivedataWV2!O4</f>
@@ -2440,65 +2763,67 @@
         <f>'Modeled (Moons)'!R4</f>
         <v>9.9920704658028487</v>
       </c>
-      <c r="G28" s="28">
-        <f t="shared" si="9"/>
-        <v>-3.5812927189398005</v>
-      </c>
+      <c r="G28" s="39"/>
       <c r="H28" s="28">
-        <f t="shared" si="10"/>
-        <v>-10.635853159677815</v>
+        <f>$B28-D28</f>
+        <v>-3.4187654973046682</v>
       </c>
       <c r="I28" s="28">
-        <f t="shared" si="10"/>
-        <v>-2.4804345212376964</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+        <f t="shared" si="4"/>
+        <v>-10.962479579730282</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="4"/>
+        <v>-2.807060941290163</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="53">
         <f>'Observed (Moons)'!Q15*1000000</f>
         <v>61.9</v>
       </c>
-      <c r="C29" s="54">
-        <f>'VLT-MUSE'!H7*1000000</f>
-        <v>68.989255981583341</v>
-      </c>
-      <c r="D29" s="54">
+      <c r="C29" s="53">
+        <f>'Observed VLT-MUSE MaximDL'!H8*1000000</f>
+        <v>68.933984092086021</v>
+      </c>
+      <c r="D29" s="53">
         <f>filtereffectivedataWV1!N14*1000000</f>
         <v>67.5</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="53">
         <f>filtereffectivedataWV2!N14*1000000</f>
         <v>108</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="53">
         <f>'Modeled (Moons)'!Q15*1000000</f>
         <v>61.600000000000009</v>
       </c>
-      <c r="G29" s="31">
-        <f t="shared" si="9"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="31">
+        <f>$B29-D29</f>
         <v>-5.6000000000000014</v>
       </c>
-      <c r="H29" s="31">
-        <f t="shared" si="10"/>
+      <c r="I29" s="31">
+        <f t="shared" si="4"/>
         <v>-46.1</v>
       </c>
-      <c r="I29" s="31">
-        <f t="shared" si="10"/>
+      <c r="J29" s="31">
+        <f t="shared" si="4"/>
         <v>0.29999999999999005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>87</v>
       </c>
@@ -2507,7 +2832,7 @@
         <v>0.15315117949417478</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2516,7 +2841,7 @@
         <v>7.4723546195936422E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -2524,7 +2849,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2532,7 +2857,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2865,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2551,11 +2876,12 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2564,22 +2890,22 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" customWidth="1"/>
-    <col min="3" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="38.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>620</v>
       </c>
@@ -2649,16 +2975,16 @@
         <v>26</v>
       </c>
       <c r="C2" s="38">
-        <v>3.3214719692628299E-2</v>
+        <v>3.4742909999999898E-2</v>
       </c>
       <c r="D2" s="39">
-        <v>618.56807271012997</v>
+        <v>619.75</v>
       </c>
       <c r="E2" s="38">
-        <v>0.42821318552191601</v>
+        <v>0.45419624999999902</v>
       </c>
       <c r="F2" s="39">
-        <v>618.56807271012997</v>
+        <v>619.75</v>
       </c>
       <c r="G2" t="s">
         <v>82</v>
@@ -2685,17 +3011,17 @@
       </c>
       <c r="N2" s="12">
         <f>I2/(N$14*C2+N$15*E2)*1000</f>
-        <v>163806.56258068321</v>
+        <v>154441.89156025345</v>
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13">
         <f>N2*N15</f>
-        <v>296.48987827103662</v>
+        <v>279.53982372405875</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4">
         <f>N2*E2*N15/1000</f>
-        <v>0.12696087524944569</v>
+        <v>0.12696593966112824</v>
       </c>
       <c r="S2" s="2">
         <f>I2*2.2*$B$25/(224*$B$23*$B$22)/4</f>
@@ -2703,10 +3029,10 @@
       </c>
       <c r="T2" s="2">
         <f>(P2)*$B$28/4</f>
-        <v>935.57396495973558</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>882.08805902839299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>632</v>
       </c>
@@ -2714,16 +3040,16 @@
         <v>27</v>
       </c>
       <c r="C3" s="38">
-        <v>0.10388872078368</v>
+        <v>0.1141101725</v>
       </c>
       <c r="D3" s="39">
-        <v>630.87519017272996</v>
+        <v>631.75</v>
       </c>
       <c r="E3" s="38">
-        <v>1.8731439891883001E-2</v>
+        <v>1.0710000000000001E-2</v>
       </c>
       <c r="F3" s="39">
-        <v>630.87519017272996</v>
+        <v>631.75</v>
       </c>
       <c r="G3" t="s">
         <v>83</v>
@@ -2754,7 +3080,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>647</v>
       </c>
@@ -2762,16 +3088,16 @@
         <v>28</v>
       </c>
       <c r="C4" s="38">
-        <v>2.9643695417013101</v>
+        <v>3.12914585</v>
       </c>
       <c r="D4" s="39">
-        <v>646.63311578422599</v>
+        <v>646.75</v>
       </c>
       <c r="E4" s="38">
-        <v>2.7918658202382499E-2</v>
+        <v>2.8161249999999999E-2</v>
       </c>
       <c r="F4" s="39">
-        <v>646.63311578422599</v>
+        <v>646.75</v>
       </c>
       <c r="G4" t="s">
         <v>84</v>
@@ -2788,7 +3114,7 @@
       <c r="K4" s="1">
         <v>1475.2886485310901</v>
       </c>
-      <c r="L4" s="58">
+      <c r="L4" s="57">
         <f t="shared" si="0"/>
         <v>164280.3974865326</v>
       </c>
@@ -2798,20 +3124,20 @@
       </c>
       <c r="N4" s="12">
         <f>I4/(N$14*C4+N$15*E4)*1000</f>
-        <v>164339.68390377707</v>
+        <v>157092.96328618302</v>
       </c>
       <c r="O4" s="13">
         <f>N4*N14</f>
-        <v>11.092928663504953</v>
+        <v>10.603775021817354</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="4">
         <f>N4*C4*N14/1000</f>
-        <v>3.2883539858359498E-2</v>
+        <v>3.3180758603853437E-2</v>
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>656</v>
       </c>
@@ -2819,16 +3145,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="38">
-        <v>0.45815272273296798</v>
+        <v>0.44720636666666602</v>
       </c>
       <c r="D5" s="39">
-        <v>657.28431530743296</v>
+        <v>656.25</v>
       </c>
       <c r="E5" s="38">
-        <v>7.9544943497809301E-2</v>
+        <v>6.8306249999999999E-2</v>
       </c>
       <c r="F5" s="39">
-        <v>657.28431530743296</v>
+        <v>656.25</v>
       </c>
       <c r="G5" t="s">
         <v>83</v>
@@ -2855,20 +3181,20 @@
       </c>
       <c r="N5" s="14">
         <f>I5/(N$14*C5+N$15*E5)*1000</f>
-        <v>25897.834526150644</v>
+        <v>29447.095967243138</v>
       </c>
       <c r="O5" s="15">
         <f>N5*N$14</f>
-        <v>1.7481038305151684</v>
+        <v>1.9876789777889119</v>
       </c>
       <c r="P5" s="15">
         <f>N5*N$15</f>
-        <v>46.875080492332664</v>
+        <v>53.299243700710079</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>658</v>
       </c>
@@ -2916,7 +3242,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>672</v>
       </c>
@@ -2964,7 +3290,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>730</v>
       </c>
@@ -3021,7 +3347,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>889</v>
       </c>
@@ -3069,7 +3395,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>940</v>
       </c>
@@ -3117,7 +3443,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L11" s="16"/>
       <c r="M11" s="16" t="s">
         <v>1</v>
@@ -3126,7 +3452,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>0</v>
@@ -3135,12 +3461,12 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N14" s="12">
         <v>6.7500000000000001E-5</v>
       </c>
@@ -3148,7 +3474,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" s="12">
         <v>1.81E-3</v>
       </c>
@@ -3157,7 +3483,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J17" s="17" t="s">
         <v>42</v>
       </c>
@@ -3170,10 +3496,10 @@
       </c>
       <c r="P17" s="1">
         <f>O4/P2</f>
-        <v>3.7414190083630235E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+        <v>3.7932967405333362E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3186,10 +3512,10 @@
       </c>
       <c r="P18" s="2">
         <f>$N$15*P17</f>
-        <v>6.771968405137073E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+        <v>6.865867100365339E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3217,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3228,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3242,7 +3568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3256,7 +3582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3282,7 +3608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -3314,20 +3640,20 @@
       <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="9.26953125" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>620</v>
       </c>
@@ -3454,7 +3780,7 @@
         <v>958.28741221054611</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>632</v>
       </c>
@@ -3502,7 +3828,7 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>647</v>
       </c>
@@ -3559,7 +3885,7 @@
       </c>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>656</v>
       </c>
@@ -3616,7 +3942,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>658</v>
       </c>
@@ -3664,7 +3990,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>672</v>
       </c>
@@ -3712,7 +4038,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>730</v>
       </c>
@@ -3769,7 +4095,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>889</v>
       </c>
@@ -3817,7 +4143,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>940</v>
       </c>
@@ -3865,7 +4191,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L11" s="16"/>
       <c r="M11" s="16" t="s">
         <v>1</v>
@@ -3874,7 +4200,7 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>0</v>
@@ -3883,12 +4209,12 @@
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N14" s="12">
         <v>1.08E-4</v>
       </c>
@@ -3896,7 +4222,7 @@
       <c r="P14" s="12"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="N15" s="12">
         <v>1.81E-3</v>
       </c>
@@ -3905,7 +4231,7 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J17" s="17" t="s">
         <v>42</v>
       </c>
@@ -3921,7 +4247,7 @@
         <v>5.9757031731181819E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J18" s="17" t="s">
         <v>43</v>
       </c>
@@ -3937,7 +4263,7 @@
         <v>1.0816022743343909E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3948,7 +4274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3959,7 +4285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3967,7 +4293,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3978,7 +4304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3989,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -3998,7 +4324,7 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -4009,7 +4335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -4030,30 +4356,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D68134-76B1-4DF2-B2D5-A6AD487B0E43}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="11" width="8.7265625" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="13" width="11" customWidth="1"/>
     <col min="17" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="I1" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-    </row>
-    <row r="2" spans="1:21" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I1" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+    </row>
+    <row r="2" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4115,7 +4441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>620</v>
       </c>
@@ -4150,7 +4476,7 @@
         <v>294.31949888843599</v>
       </c>
       <c r="L3" s="19"/>
-      <c r="M3" s="60">
+      <c r="M3" s="59">
         <f>K3/Q$16</f>
         <v>162607.45794941214</v>
       </c>
@@ -4162,7 +4488,7 @@
         <f>(K3)*$B$29/4</f>
         <v>928.72533169006863</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="59">
         <f>I3/(Q$15*C3+Q$16*E3)*1000</f>
         <v>162179.33529531353</v>
       </c>
@@ -4177,7 +4503,7 @@
         <v>0.12569966692466594</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>647</v>
       </c>
@@ -4211,12 +4537,12 @@
       <c r="K4" s="1">
         <v>1354.5441959699001</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="58">
         <f>J4/K16</f>
         <v>162607.45794941214</v>
       </c>
       <c r="M4" s="14"/>
-      <c r="Q4" s="60">
+      <c r="Q4" s="59">
         <f>I4/(Q$15*C4+Q$16*E4)*1000</f>
         <v>162208.93613316311</v>
       </c>
@@ -4228,7 +4554,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L5" s="20"/>
       <c r="M5" s="14"/>
       <c r="Q5" s="12"/>
@@ -4240,7 +4566,7 @@
       </c>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L6" s="19"/>
       <c r="M6" s="14"/>
       <c r="Q6" s="14"/>
@@ -4249,7 +4575,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L7" s="19"/>
       <c r="M7" s="14"/>
       <c r="Q7" s="14"/>
@@ -4258,7 +4584,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L8" s="19"/>
       <c r="M8" s="14"/>
       <c r="Q8" s="14"/>
@@ -4267,7 +4593,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L9" s="19"/>
       <c r="M9" s="12"/>
       <c r="Q9" s="14"/>
@@ -4276,7 +4602,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L10" s="19"/>
       <c r="M10" s="14"/>
       <c r="Q10" s="14"/>
@@ -4285,7 +4611,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L11" s="19"/>
       <c r="M11" s="14"/>
       <c r="Q11" s="14"/>
@@ -4294,7 +4620,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L12" s="16"/>
       <c r="M12" s="16" t="s">
         <v>1</v>
@@ -4303,7 +4629,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="L13" s="16"/>
       <c r="M13" s="16" t="s">
         <v>0</v>
@@ -4312,14 +4638,14 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J15" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <f>J4/K3</f>
@@ -4332,9 +4658,9 @@
       <c r="S15" s="12"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J16" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K16" s="2">
         <f>K15*Q16</f>
@@ -4348,7 +4674,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R18" s="17" t="s">
         <v>42</v>
       </c>
@@ -4357,7 +4683,7 @@
         <v>3.4039360873447791E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="R19" s="17" t="s">
         <v>43</v>
       </c>
@@ -4366,7 +4692,7 @@
         <v>6.1611243180940503E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4388,7 +4714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -4396,7 +4722,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -4407,7 +4733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -4418,7 +4744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4427,7 +4753,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -4438,7 +4764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -4467,43 +4793,44 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="5" width="6.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="5" width="6.140625" customWidth="1"/>
     <col min="6" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="13" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="C1" s="65" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C1" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:36" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+    </row>
+    <row r="2" spans="1:36" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4876,7 @@
       <c r="O2" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="74" t="s">
         <v>55</v>
       </c>
       <c r="Q2" s="25" t="s">
@@ -4562,10 +4889,10 @@
         <v>39</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U2" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X2" s="27"/>
       <c r="Y2" s="27"/>
@@ -4576,7 +4903,7 @@
       <c r="AE2" s="27"/>
       <c r="AF2" s="27"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>620</v>
       </c>
@@ -4587,7 +4914,7 @@
         <v>0.91</v>
       </c>
       <c r="F3" s="4">
-        <f>AVERAGE(C3:E3)</f>
+        <f>AVERAGE(D3:E3)</f>
         <v>0.91</v>
       </c>
       <c r="G3" s="1">
@@ -4604,16 +4931,16 @@
       </c>
       <c r="K3" s="1">
         <f>1000*I3/filtereffectivedataWV1!$C$4</f>
-        <v>31.814751212534226</v>
+        <v>30.139432289882329</v>
       </c>
       <c r="L3" s="4">
         <f>1000*I3/filtereffectivedataWV1!$E$2</f>
-        <v>220.24235278111129</v>
+        <v>207.6430165842221</v>
       </c>
       <c r="M3" s="24"/>
-      <c r="N3" s="56">
+      <c r="N3" s="55">
         <f>L3/$B$21</f>
-        <v>121680.85789011673</v>
+        <v>114719.89866531608</v>
       </c>
       <c r="O3" s="2">
         <f>I3*2.2*$B$23/(224*$B$21*$B$20)/4</f>
@@ -4621,29 +4948,29 @@
       </c>
       <c r="P3" s="2">
         <f>(L3)*$B$26/4</f>
-        <v>694.97485865308875</v>
-      </c>
-      <c r="Q3" s="60">
+        <v>655.2176467363679</v>
+      </c>
+      <c r="Q3" s="59">
         <f>I3/(Q$15*filtereffectivedataWV1!$C$2+$B$21*filtereffectivedataWV1!$E$2)*1000</f>
-        <v>121358.93313071605</v>
+        <v>114420.57651748073</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="13">
         <f>Q3*$B$21</f>
-        <v>219.65966896659603</v>
+        <v>207.10124349664011</v>
       </c>
       <c r="T3" s="21"/>
       <c r="U3" s="21">
         <f>Q3*filtereffectivedataWV2!$E$2*$B$21/1000</f>
-        <v>9.4061166578875643E-2</v>
+        <v>8.8683483203246274E-2</v>
       </c>
       <c r="V3" s="2">
         <f>P3*2.2*$B$23/(224*$B$21*$B$20)/4</f>
-        <v>4907684.1854603039</v>
+        <v>4626931.8132668221</v>
       </c>
       <c r="W3" s="2">
         <f>(S3)*$B$26/4</f>
-        <v>693.13619957358526</v>
+        <v>653.50808147696239</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
@@ -4652,7 +4979,7 @@
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>632</v>
       </c>
@@ -4670,14 +4997,14 @@
       <c r="T4" s="9"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>647</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>0.97599999999999998</v>
       </c>
       <c r="D5">
@@ -4708,31 +5035,31 @@
       </c>
       <c r="K5" s="4">
         <f>1000*I5/filtereffectivedataWV1!$C$4</f>
-        <v>9.5802746999616595</v>
+        <v>9.0757912488157118</v>
       </c>
       <c r="L5" s="1">
         <f>1000*I5/filtereffectivedataWV1!$E$2</f>
-        <v>66.320878202487094</v>
-      </c>
-      <c r="M5" s="57">
+        <v>62.526880223467415</v>
+      </c>
+      <c r="M5" s="56">
         <f>K5/L15</f>
-        <v>121680.85789011675</v>
+        <v>114719.89866531608</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="60">
+      <c r="Q5" s="59">
         <f>I5/(Q$15*filtereffectivedataWV1!$C$4+$B$21*filtereffectivedataWV1!$E$4)*1000</f>
-        <v>121351.14611575367</v>
+        <v>116074.46727807246</v>
       </c>
       <c r="R5" s="13">
         <f>Q5*Q$15</f>
-        <v>7.5116359445651524</v>
+        <v>7.1850095245126857</v>
       </c>
       <c r="S5" s="23"/>
       <c r="T5" s="21">
         <f>Q5*filtereffectivedataWV2!$C$4*Q$15/1000</f>
-        <v>2.226726480241769E-2</v>
+        <v>2.1299023391299219E-2</v>
       </c>
       <c r="U5" s="1"/>
       <c r="X5" s="8"/>
@@ -4745,7 +5072,7 @@
       <c r="AE5" s="5"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>656</v>
       </c>
@@ -4783,7 +5110,7 @@
       <c r="U6" s="1"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>658</v>
       </c>
@@ -4799,7 +5126,7 @@
       <c r="T7" s="9"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>672</v>
       </c>
@@ -4815,7 +5142,7 @@
       <c r="T8" s="9"/>
       <c r="X8" s="10"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>730</v>
       </c>
@@ -4823,13 +5150,13 @@
         <v>32</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="60"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>889</v>
       </c>
@@ -4854,7 +5181,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>940</v>
       </c>
@@ -4865,23 +5192,23 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="K14" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" s="21">
         <f>K5/L3</f>
-        <v>4.3498784765903097E-2</v>
+        <v>4.3708627422750237E-2</v>
       </c>
       <c r="N14" t="s">
         <v>47</v>
@@ -4892,18 +5219,18 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="K15" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2">
         <f>L14*$B$21</f>
-        <v>7.8732800426284597E-5</v>
+        <v>7.9112615635177925E-5</v>
       </c>
       <c r="N15" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="54">
         <v>6.19E-5</v>
       </c>
       <c r="R15" s="12"/>
@@ -4911,18 +5238,18 @@
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="S17" s="17"/>
       <c r="T17" s="21"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q18" s="12"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +5267,7 @@
         <v>3.4198895027624313E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4954,7 +5281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4962,7 +5289,7 @@
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -4975,7 +5302,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -4992,7 +5319,7 @@
         <v>16129.032258064517</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5006,7 +5333,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5023,7 +5350,7 @@
         <v>16252.032258064517</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -5041,7 +5368,7 @@
         <v>615.30766375619521</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5065,343 +5392,922 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E5485-8047-4EFF-93C7-3FA5C516909C}">
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371E5485-8047-4EFF-93C7-3FA5C516909C}">
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>620</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="60">
+        <v>20986630</v>
+      </c>
+      <c r="E3" s="2">
+        <f>(A3-A4)*D4+C4</f>
+        <v>24350700</v>
+      </c>
+      <c r="F3" s="1">
+        <f>C3/E3</f>
+        <v>0.86184914602044294</v>
+      </c>
+      <c r="G3" s="1">
+        <f>-LN(F3)</f>
+        <v>0.14867502825019424</v>
+      </c>
+      <c r="H3">
+        <f>1000*G3/filtereffectivedataWV1!$E$2</f>
+        <v>327.33653844608921</v>
+      </c>
+      <c r="I3" s="2">
+        <f>H3/$C$19</f>
+        <v>180848.91626855757</v>
+      </c>
+      <c r="J3" s="2">
+        <f>G3*2.2*$C$21/(224*$C$19*$C$18)/4</f>
+        <v>1049.8942167929017</v>
+      </c>
+      <c r="K3" s="62">
+        <f>(H3)*$C$24/4</f>
+        <v>1032.9106171720507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>632</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="60">
+        <v>23498500</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(C6-C4)/(A6-A4)</f>
+        <v>-71016.666666666672</v>
+      </c>
+      <c r="F4" s="4">
+        <f>C3/C4</f>
+        <v>0.89310509181437114</v>
+      </c>
+      <c r="G4" s="4">
+        <f>-LN(F4)</f>
+        <v>0.11305102102720174</v>
+      </c>
+      <c r="H4" s="3">
+        <f>1000*G4/filtereffectivedataWV1!$E$2</f>
+        <v>248.9034663478661</v>
+      </c>
+      <c r="K4" s="62">
+        <f>(H4)*$C$24/4</f>
+        <v>785.41501740716751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>647</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="60">
+        <v>21574980</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(A5-A4)*D4+C4</f>
+        <v>22433250</v>
+      </c>
+      <c r="F5" s="72">
+        <f>C5/E5</f>
+        <v>0.96174116545752397</v>
+      </c>
+      <c r="G5" s="1">
+        <f>-LN(F5)</f>
+        <v>3.9009923295199561E-2</v>
+      </c>
+      <c r="H5">
+        <f>1000*G5/filtereffectivedataWV1!$C$4</f>
+        <v>12.466636317127744</v>
+      </c>
+      <c r="I5" s="2">
+        <f>H5/H8</f>
+        <v>180848.91626855757</v>
+      </c>
+      <c r="M5">
+        <f>310*0.06</f>
+        <v>18.599999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>656</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="63">
+        <v>21794100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>H5/H3</f>
+        <v>3.8085074084025422E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f>H7*$C$19</f>
+        <v>6.8933984092086018E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>620</v>
+      </c>
+      <c r="C10" s="61">
+        <v>5.8965309542336397E-4</v>
+      </c>
+      <c r="E10" s="2">
+        <f>(A10-A11)*D11+C11</f>
+        <v>6.8678230896612551E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <f>C10/E10</f>
+        <v>0.85857350680890598</v>
+      </c>
+      <c r="G10" s="1">
+        <f>-LN(F10)</f>
+        <v>0.15248297993502985</v>
+      </c>
+      <c r="H10">
+        <f>1000*G10/filtereffectivedataWV1!$E$2</f>
+        <v>335.72047311053353</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10/$C$19</f>
+        <v>185480.9243704605</v>
+      </c>
+      <c r="J10" s="2">
+        <f>G10*2.2*$C$21/(224*$C$19*$C$18)/4</f>
+        <v>1076.7847208593132</v>
+      </c>
+      <c r="K10" s="62">
+        <f>(H10)*$C$24/4</f>
+        <v>1059.3661273625441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>632</v>
+      </c>
+      <c r="C11" s="61">
+        <v>6.7414361848031502E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <f>(C13-C11)/(A13-A11)</f>
+        <v>-1.0532242071508743E-6</v>
+      </c>
+      <c r="F11" s="4">
+        <f>C10/C11</f>
+        <v>0.87466984669021508</v>
+      </c>
+      <c r="G11" s="4">
+        <f>-LN(F11)</f>
+        <v>0.13390878189522179</v>
+      </c>
+      <c r="H11" s="3">
+        <f>1000*G11/filtereffectivedataWV1!$E$2</f>
+        <v>294.82582010578483</v>
+      </c>
+      <c r="K11" s="62">
+        <f>(H11)*$C$24/4</f>
+        <v>930.32302855453042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>647</v>
+      </c>
+      <c r="C12" s="61">
+        <v>6.3455199560558595E-4</v>
+      </c>
+      <c r="E12" s="2">
+        <f>(A12-A11)*D11+C11</f>
+        <v>6.5834525537305187E-4</v>
+      </c>
+      <c r="F12" s="1">
+        <f>C12/E12</f>
+        <v>0.9638589940866461</v>
+      </c>
+      <c r="G12" s="1">
+        <f>-LN(F12)</f>
+        <v>3.6810266764689535E-2</v>
+      </c>
+      <c r="H12">
+        <f>1000*G12/filtereffectivedataWV1!$C$4</f>
+        <v>11.763678821391318</v>
+      </c>
+      <c r="I12" s="2">
+        <f>H12/H15</f>
+        <v>185480.92437046053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>656</v>
+      </c>
+      <c r="C13" s="61">
+        <v>6.4886623750869403E-4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="H14" s="75">
+        <f>H12/H10</f>
+        <v>3.5040099617392746E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="N14">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <f>H14*$C$19</f>
+        <v>6.3422580307480865E-5</v>
+      </c>
+      <c r="M15">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="75">
+        <f>H12/H11</f>
+        <v>3.9900436186933889E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>2.964</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="24">
+        <f>H16*$C$19</f>
+        <v>7.2219789498350343E-5</v>
+      </c>
+      <c r="M17">
+        <f>1-M14</f>
+        <v>4.2000000000000037E-2</v>
+      </c>
+      <c r="N17">
+        <f>1-N14</f>
+        <v>3.6000000000000032E-2</v>
+      </c>
+      <c r="O17">
+        <f>N17/M17</f>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f>H5/H4</f>
+        <v>5.0086230216273654E-2</v>
+      </c>
+      <c r="M18">
+        <f>1-M15</f>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="N18">
+        <f>1-N15</f>
+        <v>0.14100000000000001</v>
+      </c>
+      <c r="O18">
+        <f>N18/M18</f>
+        <v>1.0291970802919708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.81E-3</v>
+      </c>
+      <c r="H19" s="24">
+        <f>H18*$C$19</f>
+        <v>9.0656076691455318E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.6899999999999998E+24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>2228</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2">
+        <v>3.8499999999999998E-24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1010000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C20*C21*C22/(C19*C23)</f>
+        <v>12.622002078660904</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086C7CE1-5556-4BF5-B0E4-471B800382FE}">
+  <dimension ref="A1:T29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="16" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I1" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+    </row>
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>620</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="61">
-        <v>20950000</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(A2-A3)*D3+C3</f>
-        <v>24330000</v>
-      </c>
-      <c r="F2" s="1">
-        <f>C2/E2</f>
-        <v>0.86107685984381421</v>
-      </c>
-      <c r="G2" s="1">
-        <f>-LN(F2)</f>
-        <v>0.1495715104272845</v>
-      </c>
-      <c r="H2">
-        <f>1000*G2/filtereffectivedataWV1!$E$2</f>
-        <v>349.2921644740652</v>
-      </c>
-      <c r="I2" s="2">
-        <f>H2/$C$18</f>
-        <v>192979.09639451117</v>
-      </c>
-      <c r="J2" s="2">
-        <f>G2*2.2*$C$20/(224*$C$18*$C$17)/4</f>
-        <v>1056.2248794755485</v>
-      </c>
-      <c r="K2" s="67">
-        <f>(H2)*$C$23/4</f>
-        <v>1102.1916065129044</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>632</v>
-      </c>
       <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="61">
-        <v>23480000</v>
-      </c>
-      <c r="D3" s="2">
-        <f>(C5-C3)/(A5-A3)</f>
-        <v>-70833.333333333328</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.4742909999999898E-2</v>
+      </c>
+      <c r="D3">
+        <v>619.75</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.45419624999999902</v>
+      </c>
+      <c r="F3">
+        <v>619.75</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.87063612496085896</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.13853115639806601</v>
+      </c>
+      <c r="I3">
+        <v>3987.3216261408702</v>
+      </c>
+      <c r="J3">
+        <v>305.00286252488002</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="59">
+        <f>J3/P$16</f>
+        <v>168509.86879827626</v>
+      </c>
+      <c r="M3" s="2">
+        <f>I3*2.2*$B$26/(224*$B$24*$B$23)/4</f>
+        <v>28157155.677373134</v>
+      </c>
+      <c r="N3" s="76">
+        <f>(J3)*$B$29/4</f>
+        <v>962.43669119664037</v>
+      </c>
+      <c r="P3" s="59">
+        <f>I3/(P$15*C3+P$16*E3)*1000</f>
+        <v>4837600694.4419889</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13">
+        <f>P3*P$16</f>
+        <v>8756057.2569399998</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <f>P3*E3*P16/1000</f>
+        <v>3976.9683708874259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>647</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="61">
-        <v>21550000</v>
-      </c>
-      <c r="E4" s="2">
-        <f>(A4-A3)*D3+C3</f>
-        <v>22417500</v>
-      </c>
-      <c r="F4" s="1">
-        <f>C4/E4</f>
-        <v>0.96130255380840857</v>
-      </c>
-      <c r="G4" s="1">
-        <f>-LN(F4)</f>
-        <v>3.9466087294308817E-2</v>
-      </c>
-      <c r="H4">
-        <f>1000*G4/filtereffectivedataWV1!$C$4</f>
-        <v>13.313484280255578</v>
-      </c>
-      <c r="I4" s="2">
-        <f>H4/H7</f>
-        <v>192979.09639451117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>656</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="68">
-        <v>21780000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H6">
-        <f>H4/H2</f>
-        <v>3.8115611039548809E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H7" s="2">
-        <f>H6*$C$18</f>
-        <v>6.8989255981583342E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>620</v>
-      </c>
-      <c r="C9" s="66">
-        <v>5.89021442758281E-4</v>
-      </c>
-      <c r="E9" s="2">
-        <f>(A9-A10)*D10+C10</f>
-        <v>6.861331484359634E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <f>C9/E9</f>
-        <v>0.85846521786762819</v>
-      </c>
-      <c r="G9" s="1">
-        <f>-LN(F9)</f>
-        <v>0.15260911447103662</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>3.12914585</v>
+      </c>
+      <c r="D4">
+        <v>646.75</v>
+      </c>
+      <c r="E4">
+        <v>2.8161249999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>646.75</v>
+      </c>
+      <c r="G4">
+        <v>0.95273936474507703</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.8413901982595701E-2</v>
+      </c>
+      <c r="I4">
+        <v>15.471922468105999</v>
+      </c>
+      <c r="J4">
+        <v>1719.1673658873699</v>
+      </c>
+      <c r="K4" s="58">
+        <f>I4/J16</f>
+        <v>168509.86879827626</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="P4" s="59">
+        <f>I4/(P$15*C4+P$16*E4)*1000</f>
+        <v>63480479.377807379</v>
+      </c>
+      <c r="Q4" s="13">
+        <f>P4*P$15</f>
+        <v>3910.397529672935</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K5" s="20"/>
+      <c r="L5" s="14"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="4">
+        <f>P5*C5*P15/1000</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="19"/>
+      <c r="L6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="17"/>
+      <c r="I8" s="72"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="17"/>
       <c r="H9">
-        <f>1000*G9/filtereffectivedataWV1!$E$2</f>
-        <v>356.38583684674057</v>
-      </c>
-      <c r="I9" s="2">
-        <f>H9/$C$18</f>
-        <v>196898.25240151412</v>
-      </c>
-      <c r="J9" s="2">
-        <f>G9*2.2*$C$20/(224*$C$18*$C$17)/4</f>
-        <v>1077.6754415233679</v>
-      </c>
-      <c r="K9" s="67">
-        <f>(H9)*$C$23/4</f>
-        <v>1124.5756933712164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>632</v>
-      </c>
-      <c r="C10" s="66">
-        <v>6.7419334306924197E-4</v>
-      </c>
-      <c r="D10" s="2">
-        <f>(C12-C10)/(A12-A10)</f>
-        <v>-9.9498378056012344E-7</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>647</v>
-      </c>
-      <c r="C11" s="66">
-        <v>6.34304262062947E-4</v>
-      </c>
-      <c r="E11" s="2">
-        <f>(A11-A10)*D10+C10</f>
-        <v>6.5926858636084016E-4</v>
-      </c>
-      <c r="F11" s="1">
-        <f>C11/E11</f>
-        <v>0.96213330224681848</v>
-      </c>
-      <c r="G11" s="1">
-        <f>-LN(F11)</f>
-        <v>3.8602270091929083E-2</v>
-      </c>
-      <c r="H11">
-        <f>1000*G11/filtereffectivedataWV1!$C$4</f>
-        <v>13.022084307941743</v>
-      </c>
-      <c r="I11" s="2">
-        <f>H11/H14</f>
-        <v>196898.25240151415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>656</v>
-      </c>
-      <c r="C12" s="66">
-        <v>6.5031373233579901E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H13">
-        <f>H11/H9</f>
-        <v>3.6539286811057343E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="H14" s="2">
-        <f>H13*$C$18</f>
-        <v>6.6136109128013787E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+        <f>H3/0.454</f>
+        <v>0.30513470572261236</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="12"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="17"/>
+      <c r="H10" s="9">
+        <f>H4/3.129</f>
+        <v>1.5472643650557911E-2</v>
+      </c>
+      <c r="I10">
+        <f>H10/H9*0.00181</f>
+        <v>9.1780726617734059E-5</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="17"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="72"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="14"/>
+      <c r="N11" s="2"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="70">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I12" s="71">
+        <f>-LN(H12)</f>
+        <v>0.14734058789870913</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="70">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I13" s="71">
+        <f>-LN(H13)</f>
+        <v>4.290750101127655E-2</v>
+      </c>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I15" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15">
+        <f>I4/J3</f>
+        <v>5.0727138558720603E-2</v>
+      </c>
+      <c r="P15" s="12">
+        <v>6.1600000000000007E-5</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I16" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J15*P16</f>
+        <v>9.1816120791284286E-5</v>
+      </c>
+      <c r="P16" s="12">
+        <v>1.81E-3</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="1">
+        <f>Q4/R3</f>
+        <v>4.4659341698269236E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="2">
+        <f>$P$16*R18</f>
+        <v>8.0833408473867322E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="B22">
         <v>2.964</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="23" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="B23">
         <v>0.42799999999999999</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B24" s="18">
         <v>1.81E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="2">
+      <c r="B25" s="2">
         <v>2.6899999999999998E+24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="B26">
         <v>2228</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2">
+      <c r="B27" s="2">
         <v>3.8499999999999998E-24</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2">
+      <c r="B28" s="2">
         <v>1010000</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2">
-        <f>C19*C20*C21/(C18*C22)</f>
+      <c r="B29" s="2">
+        <f>B25*B26*B27/(B24*B28)</f>
         <v>12.622002078660904</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
